--- a/Apuntes/ISO27k ISMS and controls status with SoA and gaps Spanish.xlsx
+++ b/Apuntes/ISO27k ISMS and controls status with SoA and gaps Spanish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cursos\Seguridad avanzada\repositorio\seguridad_empresas\Apuntes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817EB78F-A36A-418A-946E-621E5C7613FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE94E8DE-92EC-4E02-A20F-39AAC5B945A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="573" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="573" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="6" r:id="rId1"/>
@@ -21575,9 +21575,9 @@
   </sheetPr>
   <dimension ref="A1:AD72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26406,11 +26406,11 @@
   </sheetPr>
   <dimension ref="A1:IS176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B159" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43773,7 +43773,7 @@
   </sheetPr>
   <dimension ref="B2:E319"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -44349,15 +44349,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042E8B117DDC20E4BA12924560E16060C" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="760034ca31e47546adbf3e3e457905e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f5feba2-37f8-41f8-bbc1-804ff001c113" xmlns:ns3="bb275fed-c62a-4061-a667-98cf75aa45a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0dd34bac106affd5a484d70967c6b850" ns2:_="" ns3:_="">
     <xsd:import namespace="0f5feba2-37f8-41f8-bbc1-804ff001c113"/>
@@ -44548,6 +44539,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872B14C9-BAC7-47D4-A699-B8420A036DC7}">
   <ds:schemaRefs>
@@ -44566,14 +44566,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE580852-870A-4125-98B2-BE1C8AECADA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A826A76-057C-43E5-A93A-3BA1B8871338}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44590,4 +44582,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE580852-870A-4125-98B2-BE1C8AECADA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>